--- a/biology/Médecine/Musée_de_la_médecine_de_Bruxelles/Musée_de_la_médecine_de_Bruxelles.xlsx
+++ b/biology/Médecine/Musée_de_la_médecine_de_Bruxelles/Musée_de_la_médecine_de_Bruxelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_m%C3%A9decine_de_Bruxelles</t>
+          <t>Musée_de_la_médecine_de_Bruxelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée de la médecine de Bruxelles est un musée scientifique belge consacré à l'histoire de la médecine, situé à Bruxelles sur le campus de médecine de l'Université libre de Bruxelles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_m%C3%A9decine_de_Bruxelles</t>
+          <t>Musée_de_la_médecine_de_Bruxelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouvert au public depuis février 1995, le musée de la médecine a amassé au fil des ans une collection incroyable[pourquoi ?] d’instruments chirurgicaux anciens, de tableaux, de gravures, de livres de grands anatomistes et autres ex-votos, venant de toutes les époques et de toutes les régions du globe.
 Riche d’une collection de 5 000 objets, le Musée s’est aujourd’hui doté d’une toute nouvelle scénographie, sur le thème de « l’essor de la médecine scientifique. » La nouvelle ligne directrice du Musée s’est en effet attachée à baliser l’histoire formidable de la médecine, qui est passée du magique et du religieux au rationnel, au scientifique. Autre nouveauté : une nouvelle salle thématique est également consacrée à l’histoire de la chirurgie. Le réaménagement de plusieurs salles du musée s’inscrit ici dans une volonté de ses initiateurs de répondre aux évolutions muséographiques et pédagogiques.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_m%C3%A9decine_de_Bruxelles</t>
+          <t>Musée_de_la_médecine_de_Bruxelles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement, la collection du musée de la Médecine compte plus de 5 000 objets d’art et d’archéologie, illustrant l’Art de guérir dans le monde occidental de la haute Antiquité à nos jours. Mais le musée dispose également de collections thématiques centrées sur l’Antiquité précolombienne et les civilisations égyptienne, chinoise, africaine. Le patrimoine a été constitué selon plusieurs axes : une dimension didactique, une dimension archéologique, une dimension historique (témoignages de pratiques médicales, illustrations de maladies, références aux pionniers de l'Art de guérir) et enfin une dimension artistique.
 La pièce la plus emblématique des collections est incontestablement l’écorché d’Auzoux. Il s’agit d’un modèle anatomique réalisé en carton-pierre moulé, datant de la première moitié du XIXe siècle. À lui seul, il symbolise le caractère original du patrimoine qui illustre la médecine dans l’Art et dans l’Histoire. Les pièces anatomiques avaient, au départ, un rôle essentiellement didactique. Ce type de production s’est développé à une époque où les cadavres se conservaient mal et qu’une certaine pénurie touchait les facultés à la suite d’une réglementation plus stricte. Dès lors, on avait recours à des reproductions en cire, en bois, en plâtre pour enseigner l’anatomie.
